--- a/_cv_data/projects.xlsx
+++ b/_cv_data/projects.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>type</t>
   </si>
@@ -52,10 +52,30 @@
     <t>data science</t>
   </si>
   <si>
-    <t>Titanic desaster analysis</t>
-  </si>
-  <si>
-    <t>a predictive model in R using Machine learning algorithms to predict the survivals from titanic  -  Model accuracy 0.789 -&gt; top 24% of submission</t>
+    <t>Home credit default risk</t>
+  </si>
+  <si>
+    <t>A Kaggle competition to predict how capable each applicant is of repaying a loan. The objective of this model is to use historical loan application data to predict whether or not an applicant will be able to repay a loan. Manual feature engineering has been used by utilizing advanced pandas data manipulation and aggregation functions.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="12"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>https://github.com/salma71/home_credit_risk</t>
+    </r>
+  </si>
+  <si>
+    <t>Python, ML,Bigdata, Feature engineering</t>
+  </si>
+  <si>
+    <t>Data science</t>
+  </si>
+  <si>
+    <t>Book Recommendation system</t>
   </si>
   <si>
     <r>
@@ -65,6 +85,70 @@
         <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
+      <t>https://github.com/salma71/book_recommendation_model</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://github.com/salma71/book_recommendation_model</t>
+    </r>
+  </si>
+  <si>
+    <t>Python, ML, Spark</t>
+  </si>
+  <si>
+    <t>Predicting house prices - Kaggle</t>
+  </si>
+  <si>
+    <t>Utilized different advanced types of regression to predict the final price of each home with more than 70 explanatory independent variables.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://github.com/salma71/MSDS_SP2020/tree/master/Spring2020/computational_mod_605/Final_exam</t>
+    </r>
+  </si>
+  <si>
+    <t>MSDS_SP2020/tree/master/Spring2020/computational_mod_605/Final_exam</t>
+  </si>
+  <si>
+    <t>R, EDA, Advance regression Analysis</t>
+  </si>
+  <si>
+    <t>Titanic desaster analysis</t>
+  </si>
+  <si>
+    <t>a predictive model in R using Machine learning algorithms to predict the survivals from titanic  -  Model accuracy 0.789 -&gt; top 24% of submission</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>https://github.com/salma71/titanic_kaggle_compt</t>
     </r>
   </si>
@@ -88,7 +172,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="12"/>
+        <color indexed="14"/>
         <rFont val="Trebuchet MS"/>
       </rPr>
       <t>https://rpubs.com/salmaeng/nyc_crime_investigation</t>
@@ -99,7 +183,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="12"/>
+        <color indexed="14"/>
         <rFont val="Trebuchet MS"/>
       </rPr>
       <t>https://github.com/dhairavc/DATA607-FinalProject</t>
@@ -122,7 +206,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Trebuchet MS"/>
       </rPr>
       <t>https://rpubs.com/salmaeng/spam_ham_classifier</t>
@@ -133,13 +217,16 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Trebuchet MS"/>
       </rPr>
       <t>https://github.com/salma71/MSDS_2019/tree/master/Fall2019/aquisition_management_607/week_10</t>
     </r>
   </si>
   <si>
+    <t>R, NPL, Classification</t>
+  </si>
+  <si>
     <t>feature_plot.png</t>
   </si>
   <si>
@@ -153,7 +240,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://rpubs.com/salmaeng/UN_internation_migration_analysis</t>
@@ -164,7 +251,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/salma71/MSDS_2019/tree/master/Fall2019/aquisition_management_607/week_6/project_2</t>
@@ -184,7 +271,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://rpubs.com/salmaeng/datascience_skills_proposal</t>
@@ -195,7 +282,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/salma71/DataScience_skills</t>
@@ -215,7 +302,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="15"/>
         <rFont val="Trebuchet MS"/>
       </rPr>
       <t>https://damp-wave-35943.herokuapp.com/users/sign_in</t>
@@ -226,7 +313,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/salma71/studyhub</t>
@@ -246,7 +333,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://boiling-depths-96093.herokuapp.com/</t>
@@ -257,7 +344,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/salma71/sinatra_todo_app</t>
@@ -277,7 +364,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://sleepy-plains-91408.herokuapp.com/</t>
@@ -288,7 +375,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/salma71/emicredit-rev</t>
@@ -305,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -327,10 +414,9 @@
       <name val="Trebuchet MS"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
+      <sz val="16"/>
       <color indexed="11"/>
-      <name val="Arial"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <u val="single"/>
@@ -341,18 +427,36 @@
     <font>
       <u val="single"/>
       <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <color indexed="13"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="15"/>
       <name val="Trebuchet MS"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="12"/>
-      <color indexed="12"/>
+      <color indexed="14"/>
       <name val="Trebuchet MS"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="14"/>
+      <color indexed="16"/>
       <name val="-apple-system"/>
     </font>
     <font>
@@ -377,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -403,66 +507,6 @@
     <border>
       <left style="thin">
         <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -507,6 +551,81 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -570,7 +689,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -586,61 +705,70 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -662,7 +790,9 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff666666"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffd4d4d4"/>
       <rgbColor rgb="ff1155cc"/>
       <rgbColor rgb="ff0b4cb4"/>
       <rgbColor rgb="ff24292e"/>
@@ -1730,7 +1860,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1784,102 +1914,82 @@
         <v>12</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5">
+        <v>2020</v>
+      </c>
       <c r="D2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="G2" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C3" s="9">
-        <v>2019</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="E3" s="9"/>
+      <c r="F3" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="G3" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="10">
+      <c r="H3" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="G3" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="C4" s="9">
-        <v>2019</v>
-      </c>
-      <c r="D4" t="s" s="2">
+      <c r="G4" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="H4" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="F4" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>29</v>
-      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -1888,294 +1998,396 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="E5" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s" s="5">
-        <v>16</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2019</v>
+      </c>
       <c r="D6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="15">
         <v>35</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="G6" t="s" s="15">
         <v>36</v>
       </c>
-      <c r="F6" t="s" s="13">
+      <c r="H6" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="G6" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s" s="5">
-        <v>23</v>
-      </c>
       <c r="I6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="J6" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="15">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="15">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="D8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s" s="16">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s" s="17">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" t="s" s="2">
+        <v>12</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="D9" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="5"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>39</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s" s="18">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>39</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s" s="19">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s" s="20">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>39</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s" s="21">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s" s="22">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="H14" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="I14" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="8"/>
-      <c r="I15" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="D15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s" s="20">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s" s="15">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s" s="21">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="8"/>
-      <c r="I16" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="D16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s" s="22">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s" s="23">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="8"/>
-      <c r="I17" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="D17" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s" s="24">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s" s="25">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s" s="12">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="I17" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="8"/>
-      <c r="I18" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="10"/>
+      <c r="I18" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="10"/>
+      <c r="I19" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="10"/>
+      <c r="I20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="10"/>
+      <c r="I21" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2184,17 +2396,22 @@
     <hyperlink ref="F3" r:id="rId3" location="" tooltip="" display=""/>
     <hyperlink ref="G3" r:id="rId4" location="" tooltip="" display=""/>
     <hyperlink ref="F4" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="G4" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="F5" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="G5" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="F6" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="G6" r:id="rId10" location="" tooltip="" display=""/>
-    <hyperlink ref="F12" r:id="rId11" location="" tooltip="" display=""/>
-    <hyperlink ref="G12" r:id="rId12" location="" tooltip="" display=""/>
-    <hyperlink ref="F13" r:id="rId13" location="" tooltip="" display=""/>
-    <hyperlink ref="G13" r:id="rId14" location="" tooltip="" display=""/>
-    <hyperlink ref="F14" r:id="rId15" location="" tooltip="" display=""/>
-    <hyperlink ref="G14" r:id="rId16" location="" tooltip="" display=""/>
+    <hyperlink ref="F5" r:id="rId6" location="" tooltip="" display=""/>
+    <hyperlink ref="G5" r:id="rId7" location="" tooltip="" display=""/>
+    <hyperlink ref="F6" r:id="rId8" location="" tooltip="" display=""/>
+    <hyperlink ref="G6" r:id="rId9" location="" tooltip="" display=""/>
+    <hyperlink ref="F7" r:id="rId10" location="" tooltip="" display=""/>
+    <hyperlink ref="G7" r:id="rId11" location="" tooltip="" display=""/>
+    <hyperlink ref="F8" r:id="rId12" location="" tooltip="" display=""/>
+    <hyperlink ref="G8" r:id="rId13" location="" tooltip="" display=""/>
+    <hyperlink ref="F9" r:id="rId14" location="" tooltip="" display=""/>
+    <hyperlink ref="G9" r:id="rId15" location="" tooltip="" display=""/>
+    <hyperlink ref="F15" r:id="rId16" location="" tooltip="" display=""/>
+    <hyperlink ref="G15" r:id="rId17" location="" tooltip="" display=""/>
+    <hyperlink ref="F16" r:id="rId18" location="" tooltip="" display=""/>
+    <hyperlink ref="G16" r:id="rId19" location="" tooltip="" display=""/>
+    <hyperlink ref="F17" r:id="rId20" location="" tooltip="" display=""/>
+    <hyperlink ref="G17" r:id="rId21" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
